--- a/data/trans_dic/P1435-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1435-Estudios-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02532707145484805</v>
+        <v>0.02570321264771791</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00617750026731021</v>
+        <v>0.006094841311474725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0009639546680519611</v>
+        <v>0.000957245131587533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007587041049957693</v>
+        <v>0.007670727812617559</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0470891866027139</v>
+        <v>0.04663048832643473</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01761843154792957</v>
+        <v>0.01713139080609878</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.009464460169989714</v>
+        <v>0.009253933027476277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02235028774318497</v>
+        <v>0.02265839346363595</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.02204056602892547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06662585780487809</v>
+        <v>0.06662585780487808</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08851858189715703</v>
+        <v>0.0877274045432912</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04259387157841792</v>
+        <v>0.04172575471232035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01642376927623981</v>
+        <v>0.01622651562960557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05617892484500273</v>
+        <v>0.05712361923228985</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1183659567916962</v>
+        <v>0.1172767271978444</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06337576896958004</v>
+        <v>0.06339243723380639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02976014906267188</v>
+        <v>0.02911393867842854</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0794754409436931</v>
+        <v>0.07932185627613107</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08237562418220745</v>
+        <v>0.08067221187225439</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04398089775610351</v>
+        <v>0.04435584066035324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0208587715984939</v>
+        <v>0.02251854424229959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08063905297661446</v>
+        <v>0.07864145786397646</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1392386492216235</v>
+        <v>0.1346088592694055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09180274305745845</v>
+        <v>0.09330198433261827</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05228633631925766</v>
+        <v>0.05312518710036305</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1225958431999447</v>
+        <v>0.1227453137793189</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.01879560841643444</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06158911292111122</v>
+        <v>0.06158911292111124</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03242882991068626</v>
+        <v>0.03256731180920158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01461923557507334</v>
+        <v>0.0147818630911986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05417548344182875</v>
+        <v>0.05437320797597001</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04601545037149171</v>
+        <v>0.04557651384270102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02343042805908137</v>
+        <v>0.02389382030068255</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07023102763623283</v>
+        <v>0.06944494627532512</v>
       </c>
     </row>
     <row r="16">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33308</v>
+        <v>33803</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8264</v>
+        <v>8154</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6227</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61928</v>
+        <v>61324</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23570</v>
+        <v>22918</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9414</v>
+        <v>9205</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18343</v>
+        <v>18596</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>140539</v>
+        <v>139282</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>74735</v>
+        <v>73212</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>32655</v>
+        <v>32263</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>121683</v>
+        <v>123730</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>187926</v>
+        <v>186197</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>111199</v>
+        <v>111228</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59172</v>
+        <v>57887</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>172143</v>
+        <v>171811</v>
       </c>
     </row>
     <row r="12">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>39245</v>
+        <v>38433</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20171</v>
+        <v>20343</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11454</v>
+        <v>12366</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>58898</v>
+        <v>57439</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>66335</v>
+        <v>64129</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42104</v>
+        <v>42791</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28713</v>
+        <v>29173</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>89543</v>
+        <v>89652</v>
       </c>
     </row>
     <row r="16">
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>115155</v>
+        <v>115647</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51637</v>
+        <v>52211</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>201376</v>
+        <v>202111</v>
       </c>
     </row>
     <row r="19">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>163402</v>
+        <v>161843</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82759</v>
+        <v>84395</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>261056</v>
+        <v>258134</v>
       </c>
     </row>
     <row r="20">
